--- a/DesignResources/CS 3398 S20 Edosians.xlsx
+++ b/DesignResources/CS 3398 S20 Edosians.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhale/Dropbox/College Round 4/CS 3398/CS3398-Edosians-S2020/DesignResources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D1C634-50DE-8C4D-8B24-B44B7993F2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="12560" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Assignment 3" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Assignment 4" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet4" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Scratch" sheetId="4" r:id="rId7"/>
+    <sheet name="Assignment 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment 4" sheetId="2" r:id="rId2"/>
+    <sheet name="Initial Object Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Scratch" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
   <si>
     <t>List Team Members Here: Aldo Garcia, Marcos Izaguirre, RIchard Hale,</t>
   </si>
@@ -160,6 +169,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as a developer want to have a set design prior to starting.</t>
     </r>
@@ -187,6 +198,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as a developer want a Storage Architecture to match my message patterns.</t>
     </r>
@@ -205,6 +218,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as an engineer want to have a set architecture and design for eventing and service management.</t>
     </r>
@@ -232,6 +247,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as a player would like a board generated specifically for my game with obstacles but unique to each game play.</t>
     </r>
@@ -261,6 +278,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as a developer would like to select an established user interface capable of portability accross platforms.</t>
     </r>
@@ -287,6 +306,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as the player want to login and initiate a game session.</t>
     </r>
@@ -316,6 +337,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as a player would like to be assigned into a game session and assigned a board.</t>
     </r>
@@ -346,6 +369,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as a player would like to be assigned into a game session and assigned a board.</t>
     </r>
@@ -371,6 +396,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as a player want to select a grid location for attack to be determined centrally as a hit or miss based on the roaming location of the opponents ships.</t>
     </r>
@@ -395,6 +422,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I as a player would like notification in terms of an updated board available to both players.</t>
     </r>
@@ -412,53 +441,168 @@
   </si>
   <si>
     <t>Chat</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Submarine</t>
+  </si>
+  <si>
+    <t>Size = 3x1</t>
+  </si>
+  <si>
+    <t>Destroyer</t>
+  </si>
+  <si>
+    <t>Cruiser</t>
+  </si>
+  <si>
+    <t>Battleship</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Size = 2x1</t>
+  </si>
+  <si>
+    <t>Size = 5x1</t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>StartTurn</t>
+  </si>
+  <si>
+    <t>EndTurn</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Ships[]</t>
+  </si>
+  <si>
+    <t>int AP</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>GenerateBoard</t>
+  </si>
+  <si>
+    <t>Size(x,y)</t>
+  </si>
+  <si>
+    <t>BoardCell</t>
+  </si>
+  <si>
+    <t>BoardCell[x,y]</t>
+  </si>
+  <si>
+    <t>BoardCellHitCount</t>
+  </si>
+  <si>
+    <t>HasObstruction</t>
+  </si>
+  <si>
+    <t>Projectile Interface</t>
+  </si>
+  <si>
+    <t>CheckforHit</t>
+  </si>
+  <si>
+    <t>Direction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF494949"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF262626"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -466,7 +610,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -529,28 +673,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
-    <border/>
+  <borders count="19">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF1F4E78"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF1F4E78"/>
       </top>
       <bottom style="thin">
         <color rgb="FF1F4E78"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF1F4E78"/>
       </top>
       <bottom style="thin">
         <color rgb="FF1F4E78"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF1F4E78"/>
       </right>
@@ -560,11 +716,16 @@
       <bottom style="thin">
         <color rgb="FF1F4E78"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -573,40 +734,60 @@
       <right style="thin">
         <color rgb="FF1F4E78"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF1F4E78"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF1F4E78"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF1F4E78"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -615,9 +796,11 @@
       <right style="thin">
         <color rgb="FF1F4E78"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF1F4E78"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -632,6 +815,7 @@
       <bottom style="thin">
         <color rgb="FF1F4E78"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -646,6 +830,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -654,108 +839,160 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -945,46 +1182,59 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.43"/>
-    <col customWidth="1" min="5" max="5" width="18.29"/>
-    <col customWidth="1" min="6" max="6" width="20.29"/>
-    <col customWidth="1" min="7" max="7" width="22.14"/>
-    <col customWidth="1" min="8" max="8" width="20.0"/>
+    <col min="1" max="1" width="60.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="1">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" ht="57.0" customHeight="1">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -992,162 +1242,162 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="57.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="6" ht="51.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="7" ht="45.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="45.0" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="9" ht="56.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="10" ht="51.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="11" ht="47.25" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="12" ht="45.0" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1156,338 +1406,339 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.86"/>
-    <col customWidth="1" min="3" max="3" width="24.43"/>
-    <col customWidth="1" min="4" max="4" width="25.86"/>
-    <col customWidth="1" min="5" max="5" width="23.71"/>
-    <col customWidth="1" min="6" max="6" width="23.29"/>
-    <col customWidth="1" min="7" max="7" width="24.14"/>
-    <col customWidth="1" min="8" max="8" width="30.0"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="22">
-        <v>89.0</v>
-      </c>
-      <c r="D4" s="22">
-        <v>34.0</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="C4" s="10">
+        <v>89</v>
+      </c>
+      <c r="D4" s="10">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="22">
-        <v>55.0</v>
-      </c>
-      <c r="D5" s="22">
-        <v>55.0</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="10">
+        <v>55</v>
+      </c>
+      <c r="D5" s="10">
+        <v>55</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="22">
-        <v>89.0</v>
-      </c>
-      <c r="D6" s="22">
-        <v>34.0</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="C6" s="10">
+        <v>89</v>
+      </c>
+      <c r="D6" s="10">
+        <v>34</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22">
-        <v>55.0</v>
-      </c>
-      <c r="D7" s="22">
-        <v>21.0</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="C7" s="10">
+        <v>55</v>
+      </c>
+      <c r="D7" s="10">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="22">
-        <v>21.0</v>
-      </c>
-      <c r="D8" s="22">
-        <v>34.0</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="10">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10">
+        <v>34</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="22">
-        <v>13.0</v>
-      </c>
-      <c r="D9" s="22">
-        <v>34.0</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="C9" s="10">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="22">
-        <v>34.0</v>
-      </c>
-      <c r="D10" s="22">
-        <v>55.0</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="C10" s="10">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10">
+        <v>55</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="22">
-        <v>34.0</v>
-      </c>
-      <c r="D11" s="22">
-        <v>89.0</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="10">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10">
+        <v>89</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="22">
-        <v>34.0</v>
-      </c>
-      <c r="D12" s="22">
-        <v>55.0</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="10">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10">
+        <v>55</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="22">
-        <v>34.0</v>
-      </c>
-      <c r="D13" s="22">
-        <v>55.0</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="10">
+        <v>34</v>
+      </c>
+      <c r="D13" s="10">
+        <v>55</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="13" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1499,61 +1750,248 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B8:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.43"/>
-    <col customWidth="1" min="5" max="5" width="18.29"/>
-    <col customWidth="1" min="6" max="6" width="20.29"/>
-    <col customWidth="1" min="7" max="7" width="22.14"/>
-    <col customWidth="1" min="8" max="8" width="20.0"/>
+    <col min="1" max="1" width="60.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="1">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,53 +2005,54 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="57.0" customHeight="1">
+    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="57.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="51.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="7" ht="45.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="8" ht="45.0" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -1628,57 +2067,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="56.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="10" ht="51.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="11" ht="47.25" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="45.0" customHeight="1">
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1688,6 +2127,6 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>